--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.22396028592084</v>
+        <v>8.904209333333332</v>
       </c>
       <c r="N2">
-        <v>4.22396028592084</v>
+        <v>26.712628</v>
       </c>
       <c r="O2">
-        <v>0.2364290629074784</v>
+        <v>0.3928890865119899</v>
       </c>
       <c r="P2">
-        <v>0.2364290629074784</v>
+        <v>0.3928890865119899</v>
       </c>
       <c r="Q2">
-        <v>142.2659633647307</v>
+        <v>1332.571566408902</v>
       </c>
       <c r="R2">
-        <v>142.2659633647307</v>
+        <v>11993.14409768012</v>
       </c>
       <c r="S2">
-        <v>0.06234598960231234</v>
+        <v>0.2326438033399125</v>
       </c>
       <c r="T2">
-        <v>0.06234598960231234</v>
+        <v>0.2326438033399126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.07010230150274</v>
+        <v>9.112038</v>
       </c>
       <c r="N3">
-        <v>9.07010230150274</v>
+        <v>27.336114</v>
       </c>
       <c r="O3">
-        <v>0.5076837002390898</v>
+        <v>0.4020593128556135</v>
       </c>
       <c r="P3">
-        <v>0.5076837002390898</v>
+        <v>0.4020593128556135</v>
       </c>
       <c r="Q3">
-        <v>305.4874464707812</v>
+        <v>1363.674448373718</v>
       </c>
       <c r="R3">
-        <v>305.4874464707812</v>
+        <v>12273.07003536346</v>
       </c>
       <c r="S3">
-        <v>0.1338754309945225</v>
+        <v>0.2380738252145551</v>
       </c>
       <c r="T3">
-        <v>0.1338754309945225</v>
+        <v>0.2380738252145552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H4">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.57159332634959</v>
+        <v>4.64717</v>
       </c>
       <c r="N4">
-        <v>4.57159332634959</v>
+        <v>13.94151</v>
       </c>
       <c r="O4">
-        <v>0.2558872368534318</v>
+        <v>0.2050516006323966</v>
       </c>
       <c r="P4">
-        <v>0.2558872368534318</v>
+        <v>0.2050516006323966</v>
       </c>
       <c r="Q4">
-        <v>153.9744894980972</v>
+        <v>695.4785511483699</v>
       </c>
       <c r="R4">
-        <v>153.9744894980972</v>
+        <v>6259.30696033533</v>
       </c>
       <c r="S4">
-        <v>0.06747708091399739</v>
+        <v>0.1214184508802887</v>
       </c>
       <c r="T4">
-        <v>0.06747708091399739</v>
+        <v>0.1214184508802887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H5">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.22396028592084</v>
+        <v>8.904209333333332</v>
       </c>
       <c r="N5">
-        <v>4.22396028592084</v>
+        <v>26.712628</v>
       </c>
       <c r="O5">
-        <v>0.2364290629074784</v>
+        <v>0.3928890865119899</v>
       </c>
       <c r="P5">
-        <v>0.2364290629074784</v>
+        <v>0.3928890865119899</v>
       </c>
       <c r="Q5">
-        <v>211.6914276343932</v>
+        <v>469.5556850420969</v>
       </c>
       <c r="R5">
-        <v>211.6914276343932</v>
+        <v>4226.001165378872</v>
       </c>
       <c r="S5">
-        <v>0.09277068972819742</v>
+        <v>0.08197625043318026</v>
       </c>
       <c r="T5">
-        <v>0.09277068972819742</v>
+        <v>0.08197625043318027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.07010230150274</v>
+        <v>9.112038</v>
       </c>
       <c r="N6">
-        <v>9.07010230150274</v>
+        <v>27.336114</v>
       </c>
       <c r="O6">
-        <v>0.5076837002390898</v>
+        <v>0.4020593128556135</v>
       </c>
       <c r="P6">
-        <v>0.5076837002390898</v>
+        <v>0.4020593128556135</v>
       </c>
       <c r="Q6">
-        <v>454.5646206464106</v>
+        <v>480.515347859404</v>
       </c>
       <c r="R6">
-        <v>454.5646206464106</v>
+        <v>4324.638130734636</v>
       </c>
       <c r="S6">
-        <v>0.1992063346855741</v>
+        <v>0.08388961681845626</v>
       </c>
       <c r="T6">
-        <v>0.1992063346855741</v>
+        <v>0.08388961681845626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.57159332634959</v>
+        <v>4.64717</v>
       </c>
       <c r="N7">
-        <v>4.57159332634959</v>
+        <v>13.94151</v>
       </c>
       <c r="O7">
-        <v>0.2558872368534318</v>
+        <v>0.2050516006323966</v>
       </c>
       <c r="P7">
-        <v>0.2558872368534318</v>
+        <v>0.2050516006323966</v>
       </c>
       <c r="Q7">
-        <v>229.1136877031106</v>
+        <v>245.0644421271933</v>
       </c>
       <c r="R7">
-        <v>229.1136877031106</v>
+        <v>2205.57997914474</v>
       </c>
       <c r="S7">
-        <v>0.1004057418475037</v>
+        <v>0.04278398647922949</v>
       </c>
       <c r="T7">
-        <v>0.1004057418475037</v>
+        <v>0.0427839864792295</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H8">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.22396028592084</v>
+        <v>8.904209333333332</v>
       </c>
       <c r="N8">
-        <v>4.22396028592084</v>
+        <v>26.712628</v>
       </c>
       <c r="O8">
-        <v>0.2364290629074784</v>
+        <v>0.3928890865119899</v>
       </c>
       <c r="P8">
-        <v>0.2364290629074784</v>
+        <v>0.3928890865119899</v>
       </c>
       <c r="Q8">
-        <v>185.5449669954539</v>
+        <v>448.3209355281728</v>
       </c>
       <c r="R8">
-        <v>185.5449669954539</v>
+        <v>4034.888419753556</v>
       </c>
       <c r="S8">
-        <v>0.08131238357696866</v>
+        <v>0.07826903273889715</v>
       </c>
       <c r="T8">
-        <v>0.08131238357696866</v>
+        <v>0.07826903273889717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H9">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.07010230150274</v>
+        <v>9.112038</v>
       </c>
       <c r="N9">
-        <v>9.07010230150274</v>
+        <v>27.336114</v>
       </c>
       <c r="O9">
-        <v>0.5076837002390898</v>
+        <v>0.4020593128556135</v>
       </c>
       <c r="P9">
-        <v>0.5076837002390898</v>
+        <v>0.4020593128556135</v>
       </c>
       <c r="Q9">
-        <v>398.4203728872973</v>
+        <v>458.784968749042</v>
       </c>
       <c r="R9">
-        <v>398.4203728872973</v>
+        <v>4129.064718741379</v>
       </c>
       <c r="S9">
-        <v>0.1746019345589933</v>
+        <v>0.08009587082260215</v>
       </c>
       <c r="T9">
-        <v>0.1746019345589933</v>
+        <v>0.08009587082260217</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H10">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.57159332634959</v>
+        <v>4.64717</v>
       </c>
       <c r="N10">
-        <v>4.57159332634959</v>
+        <v>13.94151</v>
       </c>
       <c r="O10">
-        <v>0.2558872368534318</v>
+        <v>0.2050516006323966</v>
       </c>
       <c r="P10">
-        <v>0.2558872368534318</v>
+        <v>0.2050516006323966</v>
       </c>
       <c r="Q10">
-        <v>200.8153664894728</v>
+        <v>233.9818757583633</v>
       </c>
       <c r="R10">
-        <v>200.8153664894728</v>
+        <v>2105.83688182527</v>
       </c>
       <c r="S10">
-        <v>0.08800441409193079</v>
+        <v>0.04084916327287837</v>
       </c>
       <c r="T10">
-        <v>0.08800441409193079</v>
+        <v>0.04084916327287837</v>
       </c>
     </row>
   </sheetData>
